--- a/work/overtime/加班打卡记录.xlsx
+++ b/work/overtime/加班打卡记录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EB23F572-1889-4631-907B-101CF38BE36E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0E10BD-837B-4B7B-A1B1-5AA28C10E90C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="1">
   <si>
     <t>陈煌云</t>
   </si>
@@ -390,12 +390,12 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -408,7 +408,7 @@
         <v>42989.391018518516</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -421,7 +421,7 @@
         <v>42989.899074074077</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -434,7 +434,7 @@
         <v>42990.384918981479</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -447,7 +447,7 @@
         <v>42990.884340277778</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -460,7 +460,7 @@
         <v>43000.383298611108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -481,18 +481,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F46590-DF7C-4649-8AFC-9EA7ED658164}">
-  <dimension ref="B1:H31"/>
+  <dimension ref="B1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B102" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120:G121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>43096.4749884259</v>
       </c>
     </row>
-    <row r="2" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -508,7 +508,7 @@
         <v>43096.882395833301</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
         <v>43104.391759259299</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -524,7 +524,7 @@
         <v>43104.881539351903</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
@@ -532,7 +532,7 @@
         <v>43111.386064814797</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
@@ -540,7 +540,7 @@
         <v>43111.897094907399</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>43129.374490740702</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
@@ -556,10 +556,10 @@
         <v>43129.8780555556</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
@@ -572,7 +572,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
@@ -585,7 +585,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
@@ -595,7 +595,7 @@
         <v>43137.388784722199</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
@@ -605,7 +605,7 @@
         <v>43137.881886574098</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D14" s="3" t="s">
         <v>0</v>
       </c>
@@ -615,7 +615,7 @@
         <v>43164.385995370401</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D15" s="3" t="s">
         <v>0</v>
       </c>
@@ -625,7 +625,7 @@
         <v>43164.908842592602</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D16" s="3" t="s">
         <v>0</v>
       </c>
@@ -635,7 +635,7 @@
         <v>43165.382210648102</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D17" s="3" t="s">
         <v>0</v>
       </c>
@@ -645,7 +645,7 @@
         <v>43165.890439814801</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D18" s="3" t="s">
         <v>0</v>
       </c>
@@ -655,7 +655,7 @@
         <v>43167.385648148098</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D19" s="3" t="s">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>43167.8987037037</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D20" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,7 +675,7 @@
         <v>43181.381168981497</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>43181.886747685203</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
         <v>0</v>
       </c>
@@ -695,7 +695,7 @@
         <v>43186.3828125</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D23" s="3" t="s">
         <v>0</v>
       </c>
@@ -705,7 +705,7 @@
         <v>43186.903576388897</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D24" s="5" t="s">
         <v>0</v>
       </c>
@@ -715,7 +715,7 @@
         <v>43188.3812847222</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D25" s="6" t="s">
         <v>0</v>
       </c>
@@ -725,7 +725,7 @@
         <v>43188.882789351897</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D26" s="3" t="s">
         <v>0</v>
       </c>
@@ -735,7 +735,7 @@
         <v>43200.383553240703</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D27" s="3" t="s">
         <v>0</v>
       </c>
@@ -745,7 +745,7 @@
         <v>43200.8772916667</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D28" s="3" t="s">
         <v>0</v>
       </c>
@@ -755,7 +755,7 @@
         <v>43207.384629629603</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D29" s="3" t="s">
         <v>0</v>
       </c>
@@ -765,7 +765,7 @@
         <v>43207.908240740697</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D30" s="5" t="s">
         <v>0</v>
       </c>
@@ -775,7 +775,7 @@
         <v>43210.385625000003</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D31" s="6" t="s">
         <v>0</v>
       </c>
@@ -783,6 +783,902 @@
       <c r="F31" s="6"/>
       <c r="G31" s="7">
         <v>43210.885613425897</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4">
+        <v>43213.383402777799</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4">
+        <v>43213.899490740703</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <v>43214.382523148102</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4">
+        <v>43214.903472222199</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4">
+        <v>43215.384050925903</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4">
+        <v>43215.906990740703</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4">
+        <v>43216.384108796301</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4">
+        <v>43216.898900462998</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4">
+        <v>43222.385682870401</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4">
+        <v>43222.899849537003</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4">
+        <v>43223.389374999999</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4">
+        <v>43223.917083333297</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4">
+        <v>43224.384525463</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4">
+        <v>43224.817233796297</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="4">
+        <v>43225.405671296299</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="4">
+        <v>43225.7801736111</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="4">
+        <v>43227.393923611096</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="4">
+        <v>43227.884710648097</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4">
+        <v>43228.382962962998</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4">
+        <v>43228.879953703698</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4">
+        <v>43230.390879629602</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4">
+        <v>43230.902361111097</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4">
+        <v>43231.3900810185</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2">
+        <v>43236.386099537034</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="2">
+        <v>43236.900775462964</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="2">
+        <v>43237.385879629626</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="2">
+        <v>43237.89949074074</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="2">
+        <v>43242.385717592595</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="2">
+        <v>43242.902951388889</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="2">
+        <v>43243.390115740738</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="2">
+        <v>43243.900648148148</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="2">
+        <v>43246.447835648149</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="2">
+        <v>43246.730856481481</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="2">
+        <v>43248.393807870372</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="2">
+        <v>43248.88386574074</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="2">
+        <v>43249.385104166664</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="2">
+        <v>43249.904340277775</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="2">
+        <v>43251.390127314815</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="2">
+        <v>43251.884166666663</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="2">
+        <v>43253.427858796298</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="2">
+        <v>43253.724675925929</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="2">
+        <v>43253.726840277777</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="2">
+        <v>43255.393599537034</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="2">
+        <v>43255.884398148148</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="2">
+        <v>43256.385208333333</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="2">
+        <v>43256.879675925928</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="2">
+        <v>43257.384479166663</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="2">
+        <v>43257.899444444447</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="2">
+        <v>43258.384212962963</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="2">
+        <v>43258.890821759262</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="2">
+        <v>43259.3903125</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="2">
+        <v>43259.885833333334</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="2">
+        <v>43262.38480324074</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="2">
+        <v>43262.903402777774</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="2">
+        <v>43263.386331018519</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="2">
+        <v>43263.884305555555</v>
+      </c>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="2">
+        <v>43270.389560185184</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="2">
+        <v>43270.917893518519</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="2">
+        <v>43271.386250000003</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="2">
+        <v>43271.916631944441</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="2">
+        <v>43272.386238425926</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="2">
+        <v>43272.95003472222</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="2">
+        <v>43272.950775462959</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="2">
+        <v>43273.383784722224</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="2">
+        <v>43273.992337962962</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="2">
+        <v>43274.0702662037</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="2">
+        <v>43274.598541666666</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="2">
+        <v>43274.599652777775</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="2">
+        <v>43274.869270833333</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="2">
+        <v>43276.391064814816</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="2">
+        <v>43276.988506944443</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="2">
+        <v>43276.992997685185</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="2">
+        <v>43277.386354166665</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="2">
+        <v>43277.893460648149</v>
+      </c>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="2">
+        <v>43278.393703703703</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="2">
+        <v>43278.96603009259</v>
+      </c>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="2">
+        <v>43279.386180555557</v>
+      </c>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="2">
+        <v>43279.993611111109</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="2">
+        <v>43283.392824074072</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="2">
+        <v>43283.920902777776</v>
+      </c>
+    </row>
+    <row r="113" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="2">
+        <v>43286.379189814812</v>
+      </c>
+    </row>
+    <row r="114" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="2">
+        <v>43286.925115740742</v>
+      </c>
+    </row>
+    <row r="115" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="2">
+        <v>43286.925833333335</v>
+      </c>
+    </row>
+    <row r="116" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="2">
+        <v>43290.37909722222</v>
+      </c>
+    </row>
+    <row r="117" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="2">
+        <v>43290.90115740741</v>
+      </c>
+    </row>
+    <row r="118" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="2">
+        <v>43291.381412037037</v>
+      </c>
+    </row>
+    <row r="119" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="2">
+        <v>43291.91988425926</v>
+      </c>
+    </row>
+    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="2">
+        <v>43293.378877314812</v>
+      </c>
+    </row>
+    <row r="121" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="2">
+        <v>43293.920925925922</v>
       </c>
     </row>
   </sheetData>

--- a/work/overtime/加班打卡记录.xlsx
+++ b/work/overtime/加班打卡记录.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0E10BD-837B-4B7B-A1B1-5AA28C10E90C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6276F429-BC48-4AB1-B1F0-96501EA6AE9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="1">
   <si>
     <t>陈煌云</t>
   </si>
@@ -390,12 +391,12 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -408,7 +409,7 @@
         <v>42989.391018518516</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -421,7 +422,7 @@
         <v>42989.899074074077</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -434,7 +435,7 @@
         <v>42990.384918981479</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -447,7 +448,7 @@
         <v>42990.884340277778</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -460,7 +461,7 @@
         <v>43000.383298611108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -480,19 +481,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F46590-DF7C-4649-8AFC-9EA7ED658164}">
-  <dimension ref="B1:H121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6110784E-557A-4CDB-A475-933F3037EAC5}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B102" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120:G121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F46590-DF7C-4649-8AFC-9EA7ED658164}">
+  <dimension ref="B1:H209"/>
+  <sheetViews>
+    <sheetView topLeftCell="B144" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179:C181"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
@@ -500,7 +516,7 @@
         <v>43096.4749884259</v>
       </c>
     </row>
-    <row r="2" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -508,7 +524,7 @@
         <v>43096.882395833301</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -516,7 +532,7 @@
         <v>43104.391759259299</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -524,7 +540,7 @@
         <v>43104.881539351903</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
@@ -532,7 +548,7 @@
         <v>43111.386064814797</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
@@ -540,7 +556,7 @@
         <v>43111.897094907399</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
@@ -548,7 +564,7 @@
         <v>43129.374490740702</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
@@ -556,10 +572,10 @@
         <v>43129.8780555556</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
@@ -572,7 +588,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
@@ -585,7 +601,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
@@ -595,7 +611,7 @@
         <v>43137.388784722199</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
@@ -605,7 +621,7 @@
         <v>43137.881886574098</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>0</v>
       </c>
@@ -615,7 +631,7 @@
         <v>43164.385995370401</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
         <v>0</v>
       </c>
@@ -625,7 +641,7 @@
         <v>43164.908842592602</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>0</v>
       </c>
@@ -635,7 +651,7 @@
         <v>43165.382210648102</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
         <v>0</v>
       </c>
@@ -645,7 +661,7 @@
         <v>43165.890439814801</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>0</v>
       </c>
@@ -655,7 +671,7 @@
         <v>43167.385648148098</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>0</v>
       </c>
@@ -665,7 +681,7 @@
         <v>43167.8987037037</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,7 +691,7 @@
         <v>43181.381168981497</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
@@ -685,7 +701,7 @@
         <v>43181.886747685203</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
         <v>0</v>
       </c>
@@ -695,7 +711,7 @@
         <v>43186.3828125</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
         <v>0</v>
       </c>
@@ -705,7 +721,7 @@
         <v>43186.903576388897</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D24" s="5" t="s">
         <v>0</v>
       </c>
@@ -715,7 +731,7 @@
         <v>43188.3812847222</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D25" s="6" t="s">
         <v>0</v>
       </c>
@@ -725,7 +741,7 @@
         <v>43188.882789351897</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
         <v>0</v>
       </c>
@@ -735,7 +751,7 @@
         <v>43200.383553240703</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
         <v>0</v>
       </c>
@@ -745,7 +761,7 @@
         <v>43200.8772916667</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D28" s="3" t="s">
         <v>0</v>
       </c>
@@ -755,7 +771,7 @@
         <v>43207.384629629603</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D29" s="3" t="s">
         <v>0</v>
       </c>
@@ -765,7 +781,7 @@
         <v>43207.908240740697</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D30" s="5" t="s">
         <v>0</v>
       </c>
@@ -775,7 +791,7 @@
         <v>43210.385625000003</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D31" s="6" t="s">
         <v>0</v>
       </c>
@@ -785,13 +801,13 @@
         <v>43210.885613425897</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
         <v>0</v>
       </c>
@@ -801,7 +817,7 @@
         <v>43213.383402777799</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D34" s="3" t="s">
         <v>0</v>
       </c>
@@ -811,7 +827,7 @@
         <v>43213.899490740703</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
         <v>0</v>
       </c>
@@ -821,7 +837,7 @@
         <v>43214.382523148102</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D36" s="3" t="s">
         <v>0</v>
       </c>
@@ -831,7 +847,7 @@
         <v>43214.903472222199</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
         <v>0</v>
       </c>
@@ -841,7 +857,7 @@
         <v>43215.384050925903</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
         <v>0</v>
       </c>
@@ -851,7 +867,7 @@
         <v>43215.906990740703</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D39" s="3" t="s">
         <v>0</v>
       </c>
@@ -861,7 +877,7 @@
         <v>43216.384108796301</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D40" s="3" t="s">
         <v>0</v>
       </c>
@@ -871,7 +887,7 @@
         <v>43216.898900462998</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D41" s="3" t="s">
         <v>0</v>
       </c>
@@ -881,7 +897,7 @@
         <v>43222.385682870401</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D42" s="3" t="s">
         <v>0</v>
       </c>
@@ -891,7 +907,7 @@
         <v>43222.899849537003</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D43" s="3" t="s">
         <v>0</v>
       </c>
@@ -901,7 +917,7 @@
         <v>43223.389374999999</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D44" s="3" t="s">
         <v>0</v>
       </c>
@@ -911,7 +927,7 @@
         <v>43223.917083333297</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D45" s="3" t="s">
         <v>0</v>
       </c>
@@ -921,7 +937,7 @@
         <v>43224.384525463</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D46" s="3" t="s">
         <v>0</v>
       </c>
@@ -931,7 +947,7 @@
         <v>43224.817233796297</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D47" s="3" t="s">
         <v>0</v>
       </c>
@@ -941,7 +957,7 @@
         <v>43225.405671296299</v>
       </c>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D48" s="3" t="s">
         <v>0</v>
       </c>
@@ -951,7 +967,7 @@
         <v>43225.7801736111</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D49" s="3" t="s">
         <v>0</v>
       </c>
@@ -961,7 +977,7 @@
         <v>43227.393923611096</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D50" s="3" t="s">
         <v>0</v>
       </c>
@@ -971,7 +987,7 @@
         <v>43227.884710648097</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D51" s="3" t="s">
         <v>0</v>
       </c>
@@ -981,7 +997,7 @@
         <v>43228.382962962998</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D52" s="3" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1007,7 @@
         <v>43228.879953703698</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D53" s="3" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1017,7 @@
         <v>43230.390879629602</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D54" s="3" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1027,7 @@
         <v>43230.902361111097</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D55" s="3" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1037,7 @@
         <v>43231.3900810185</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D56" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1047,7 @@
         <v>43236.386099537034</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D57" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1057,7 @@
         <v>43236.900775462964</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1067,7 @@
         <v>43237.385879629626</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D59" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1077,7 @@
         <v>43237.89949074074</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D60" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1087,7 @@
         <v>43242.385717592595</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1097,7 @@
         <v>43242.902951388889</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D62" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1107,7 @@
         <v>43243.390115740738</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D63" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1117,7 @@
         <v>43243.900648148148</v>
       </c>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D64" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1127,7 @@
         <v>43246.447835648149</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D65" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1137,7 @@
         <v>43246.730856481481</v>
       </c>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D66" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1147,7 @@
         <v>43248.393807870372</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D67" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1157,7 @@
         <v>43248.88386574074</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D68" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1167,7 @@
         <v>43249.385104166664</v>
       </c>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D69" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1177,7 @@
         <v>43249.904340277775</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D70" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1187,7 @@
         <v>43251.390127314815</v>
       </c>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D71" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1197,7 @@
         <v>43251.884166666663</v>
       </c>
     </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D72" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1207,7 @@
         <v>43253.427858796298</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D73" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1217,7 @@
         <v>43253.724675925929</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D74" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1227,7 @@
         <v>43253.726840277777</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D75" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1237,7 @@
         <v>43255.393599537034</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D76" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1247,7 @@
         <v>43255.884398148148</v>
       </c>
     </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1257,7 @@
         <v>43256.385208333333</v>
       </c>
     </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D78" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1267,7 @@
         <v>43256.879675925928</v>
       </c>
     </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D79" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1277,7 @@
         <v>43257.384479166663</v>
       </c>
     </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D80" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1287,7 @@
         <v>43257.899444444447</v>
       </c>
     </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D81" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1297,7 @@
         <v>43258.384212962963</v>
       </c>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D82" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1307,7 @@
         <v>43258.890821759262</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D83" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1317,7 @@
         <v>43259.3903125</v>
       </c>
     </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D84" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1327,7 @@
         <v>43259.885833333334</v>
       </c>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1337,7 @@
         <v>43262.38480324074</v>
       </c>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D86" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1347,7 @@
         <v>43262.903402777774</v>
       </c>
     </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D87" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1357,7 @@
         <v>43263.386331018519</v>
       </c>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D88" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1367,7 @@
         <v>43263.884305555555</v>
       </c>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D89" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1377,7 @@
         <v>43270.389560185184</v>
       </c>
     </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D90" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1387,7 @@
         <v>43270.917893518519</v>
       </c>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D91" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1397,7 @@
         <v>43271.386250000003</v>
       </c>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D92" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1407,7 @@
         <v>43271.916631944441</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D93" s="1" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1417,7 @@
         <v>43272.386238425926</v>
       </c>
     </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D94" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1427,7 @@
         <v>43272.95003472222</v>
       </c>
     </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D95" s="1" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1437,7 @@
         <v>43272.950775462959</v>
       </c>
     </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D96" s="1" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1447,7 @@
         <v>43273.383784722224</v>
       </c>
     </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D97" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1457,7 @@
         <v>43273.992337962962</v>
       </c>
     </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D98" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1467,7 @@
         <v>43274.0702662037</v>
       </c>
     </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D99" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +1477,7 @@
         <v>43274.598541666666</v>
       </c>
     </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D100" s="1" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1487,7 @@
         <v>43274.599652777775</v>
       </c>
     </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D101" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1497,7 @@
         <v>43274.869270833333</v>
       </c>
     </row>
-    <row r="102" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D102" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1507,7 @@
         <v>43276.391064814816</v>
       </c>
     </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D103" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1517,7 @@
         <v>43276.988506944443</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D104" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1527,7 @@
         <v>43276.992997685185</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D105" s="1" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1537,7 @@
         <v>43277.386354166665</v>
       </c>
     </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D106" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1547,7 @@
         <v>43277.893460648149</v>
       </c>
     </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D107" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1557,7 @@
         <v>43278.393703703703</v>
       </c>
     </row>
-    <row r="108" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D108" s="1" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1567,7 @@
         <v>43278.96603009259</v>
       </c>
     </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D109" s="1" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1577,7 @@
         <v>43279.386180555557</v>
       </c>
     </row>
-    <row r="110" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D110" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1587,7 @@
         <v>43279.993611111109</v>
       </c>
     </row>
-    <row r="111" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D111" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1597,7 @@
         <v>43283.392824074072</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D112" s="1" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1607,7 @@
         <v>43283.920902777776</v>
       </c>
     </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D113" s="1" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1617,7 @@
         <v>43286.379189814812</v>
       </c>
     </row>
-    <row r="114" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D114" s="1" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1627,7 @@
         <v>43286.925115740742</v>
       </c>
     </row>
-    <row r="115" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D115" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1637,7 @@
         <v>43286.925833333335</v>
       </c>
     </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D116" s="1" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1647,7 @@
         <v>43290.37909722222</v>
       </c>
     </row>
-    <row r="117" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D117" s="1" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1657,7 @@
         <v>43290.90115740741</v>
       </c>
     </row>
-    <row r="118" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D118" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1667,7 @@
         <v>43291.381412037037</v>
       </c>
     </row>
-    <row r="119" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D119" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1677,7 @@
         <v>43291.91988425926</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D120" s="1" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1687,7 @@
         <v>43293.378877314812</v>
       </c>
     </row>
-    <row r="121" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D121" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,6 +1695,886 @@
       <c r="F121" s="1"/>
       <c r="G121" s="2">
         <v>43293.920925925922</v>
+      </c>
+    </row>
+    <row r="122" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="2">
+        <v>43297.389224537037</v>
+      </c>
+    </row>
+    <row r="123" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="2">
+        <v>43297.897407407407</v>
+      </c>
+    </row>
+    <row r="124" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="2">
+        <v>43298.385706018518</v>
+      </c>
+    </row>
+    <row r="125" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="2">
+        <v>43298.93068287037</v>
+      </c>
+    </row>
+    <row r="126" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="2">
+        <v>43299.384398148148</v>
+      </c>
+    </row>
+    <row r="127" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="2">
+        <v>43299.93178240741</v>
+      </c>
+    </row>
+    <row r="128" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="2">
+        <v>43300.384398148148</v>
+      </c>
+    </row>
+    <row r="129" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="2">
+        <v>43300.908796296295</v>
+      </c>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="2">
+        <v>43304.389351851853</v>
+      </c>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="2">
+        <v>43304.921446759261</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="2">
+        <v>43305.392002314817</v>
+      </c>
+    </row>
+    <row r="133" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="2">
+        <v>43305.900740740741</v>
+      </c>
+    </row>
+    <row r="134" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="2">
+        <v>43306.380231481482</v>
+      </c>
+    </row>
+    <row r="135" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="2">
+        <v>43306.923634259256</v>
+      </c>
+    </row>
+    <row r="136" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="2">
+        <v>43307.383796296293</v>
+      </c>
+    </row>
+    <row r="137" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="2">
+        <v>43307.920706018522</v>
+      </c>
+    </row>
+    <row r="138" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="2">
+        <v>43311.386782407404</v>
+      </c>
+    </row>
+    <row r="139" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="2">
+        <v>43311.901354166665</v>
+      </c>
+    </row>
+    <row r="140" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="2">
+        <v>43312.381249999999</v>
+      </c>
+    </row>
+    <row r="141" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="2">
+        <v>43312.898321759261</v>
+      </c>
+    </row>
+    <row r="142" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="2">
+        <v>43313.386296296296</v>
+      </c>
+    </row>
+    <row r="143" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="2">
+        <v>43313.883819444447</v>
+      </c>
+    </row>
+    <row r="144" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="2">
+        <v>43314.384780092594</v>
+      </c>
+    </row>
+    <row r="145" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="2">
+        <v>43314.900717592594</v>
+      </c>
+    </row>
+    <row r="146" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="2">
+        <v>43318.386192129627</v>
+      </c>
+    </row>
+    <row r="147" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="2">
+        <v>43318.902974537035</v>
+      </c>
+    </row>
+    <row r="148" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="2">
+        <v>43319.384004629632</v>
+      </c>
+    </row>
+    <row r="149" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="2">
+        <v>43319.911134259259</v>
+      </c>
+    </row>
+    <row r="150" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="2">
+        <v>43320.383379629631</v>
+      </c>
+    </row>
+    <row r="151" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="2">
+        <v>43320.926064814812</v>
+      </c>
+    </row>
+    <row r="152" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="2">
+        <v>43321.379247685189</v>
+      </c>
+    </row>
+    <row r="153" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="2">
+        <v>43321.987303240741</v>
+      </c>
+    </row>
+    <row r="154" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="2">
+        <v>43325.472326388888</v>
+      </c>
+    </row>
+    <row r="155" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="2">
+        <v>43325.929340277777</v>
+      </c>
+    </row>
+    <row r="156" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="2">
+        <v>43326.38726851852</v>
+      </c>
+    </row>
+    <row r="157" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="2">
+        <v>43326.922939814816</v>
+      </c>
+    </row>
+    <row r="158" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="2">
+        <v>43327.382013888891</v>
+      </c>
+    </row>
+    <row r="159" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="2">
+        <v>43327.97483796296</v>
+      </c>
+    </row>
+    <row r="160" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="2">
+        <v>43328.392071759263</v>
+      </c>
+    </row>
+    <row r="161" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="2">
+        <v>43328.903182870374</v>
+      </c>
+    </row>
+    <row r="162" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="2">
+        <v>43332.382395833331</v>
+      </c>
+    </row>
+    <row r="163" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="2">
+        <v>43332.90320601852</v>
+      </c>
+    </row>
+    <row r="164" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="2">
+        <v>43333.384305555555</v>
+      </c>
+    </row>
+    <row r="165" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="2">
+        <v>43333.901678240742</v>
+      </c>
+    </row>
+    <row r="166" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="2">
+        <v>43334.381874999999</v>
+      </c>
+    </row>
+    <row r="167" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="2">
+        <v>43334.924837962964</v>
+      </c>
+    </row>
+    <row r="168" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="2">
+        <v>43335.382696759261</v>
+      </c>
+    </row>
+    <row r="169" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="2">
+        <v>43335.913761574076</v>
+      </c>
+    </row>
+    <row r="170" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="2">
+        <v>43336.378888888888</v>
+      </c>
+    </row>
+    <row r="171" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="2">
+        <v>43336.876226851855</v>
+      </c>
+    </row>
+    <row r="172" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="2">
+        <v>43339.377453703702</v>
+      </c>
+    </row>
+    <row r="173" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="2">
+        <v>43339.893518518518</v>
+      </c>
+    </row>
+    <row r="174" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="2">
+        <v>43340.384560185186</v>
+      </c>
+    </row>
+    <row r="175" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="2">
+        <v>43340.904687499999</v>
+      </c>
+    </row>
+    <row r="176" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="2">
+        <v>43341.381423611114</v>
+      </c>
+    </row>
+    <row r="177" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="2">
+        <v>43341.900393518517</v>
+      </c>
+    </row>
+    <row r="178" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="2">
+        <v>43342.377962962964</v>
+      </c>
+    </row>
+    <row r="179" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="2">
+        <v>43342.896886574075</v>
+      </c>
+    </row>
+    <row r="180" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="2">
+        <v>43346.380949074075</v>
+      </c>
+    </row>
+    <row r="181" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="2">
+        <v>43346.9</v>
+      </c>
+    </row>
+    <row r="182" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="2">
+        <v>43347.374363425923</v>
+      </c>
+    </row>
+    <row r="183" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="2">
+        <v>43347.904513888891</v>
+      </c>
+    </row>
+    <row r="184" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="2">
+        <v>43348.378738425927</v>
+      </c>
+    </row>
+    <row r="185" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D185" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="2">
+        <v>43348.955868055556</v>
+      </c>
+    </row>
+    <row r="186" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="2">
+        <v>43348.957187499997</v>
+      </c>
+    </row>
+    <row r="187" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D187" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="2">
+        <v>43349.378831018519</v>
+      </c>
+    </row>
+    <row r="188" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="2">
+        <v>43349.918935185182</v>
+      </c>
+    </row>
+    <row r="189" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="2">
+        <v>43350.380983796298</v>
+      </c>
+    </row>
+    <row r="190" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="2">
+        <v>43350.997129629628</v>
+      </c>
+    </row>
+    <row r="191" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D191" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="7">
+        <v>43351.024618055555</v>
+      </c>
+    </row>
+    <row r="192" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D192" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="7">
+        <v>43353.379814814813</v>
+      </c>
+    </row>
+    <row r="193" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="2">
+        <v>43353.379814814813</v>
+      </c>
+    </row>
+    <row r="194" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="2">
+        <v>43353.904942129629</v>
+      </c>
+    </row>
+    <row r="195" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="2">
+        <v>43354.381423611114</v>
+      </c>
+    </row>
+    <row r="196" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="2">
+        <v>43354.89261574074</v>
+      </c>
+    </row>
+    <row r="197" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="2">
+        <v>43355.380243055559</v>
+      </c>
+    </row>
+    <row r="198" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D198" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="2">
+        <v>43355.928773148145</v>
+      </c>
+    </row>
+    <row r="199" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D199" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="2">
+        <v>43356.381990740738</v>
+      </c>
+    </row>
+    <row r="200" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D200" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="2">
+        <v>43356.925543981481</v>
+      </c>
+    </row>
+    <row r="201" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D201" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="2">
+        <v>43360.380069444444</v>
+      </c>
+    </row>
+    <row r="202" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D202" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="2">
+        <v>43360.910046296296</v>
+      </c>
+    </row>
+    <row r="203" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D203" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="2">
+        <v>43361.377638888887</v>
+      </c>
+    </row>
+    <row r="204" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D204" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="2">
+        <v>43361.380972222221</v>
+      </c>
+    </row>
+    <row r="205" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D205" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="2">
+        <v>43361.908229166664</v>
+      </c>
+    </row>
+    <row r="206" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D206" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="2">
+        <v>43362.38144675926</v>
+      </c>
+    </row>
+    <row r="207" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D207" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="2">
+        <v>43362.917708333334</v>
+      </c>
+    </row>
+    <row r="208" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D208" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="2">
+        <v>43363.382280092592</v>
+      </c>
+    </row>
+    <row r="209" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D209" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="2">
+        <v>43363.920671296299</v>
       </c>
     </row>
   </sheetData>

--- a/work/overtime/加班打卡记录.xlsx
+++ b/work/overtime/加班打卡记录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6276F429-BC48-4AB1-B1F0-96501EA6AE9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E822E103-B338-40B7-AF42-087D3CB5AC8D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="4">
   <si>
     <t>陈煌云</t>
+  </si>
+  <si>
+    <t>加班到23号1点多回去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二天0点多回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0点以后回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +76,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -105,6 +133,23 @@
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -484,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6110784E-557A-4CDB-A475-933F3037EAC5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -497,85 +542,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F46590-DF7C-4649-8AFC-9EA7ED658164}">
-  <dimension ref="B1:H209"/>
+  <dimension ref="B1:K247"/>
   <sheetViews>
-    <sheetView topLeftCell="B144" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179:C181"/>
+    <sheetView tabSelected="1" topLeftCell="B161" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="4">
         <v>43096.4749884259</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="4">
         <v>43096.882395833301</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="4">
         <v>43104.391759259299</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>43104.881539351903</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>43111.386064814797</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="4">
         <v>43111.897094907399</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>43129.374490740702</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="4">
         <v>43129.8780555556</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
@@ -588,7 +651,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
@@ -600,8 +663,11 @@
         <v>43132.880509259303</v>
       </c>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J11" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
@@ -611,7 +677,7 @@
         <v>43137.388784722199</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
@@ -620,8 +686,11 @@
       <c r="G13" s="4">
         <v>43137.881886574098</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J13" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>0</v>
       </c>
@@ -631,7 +700,7 @@
         <v>43164.385995370401</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
         <v>0</v>
       </c>
@@ -640,8 +709,11 @@
       <c r="G15" s="4">
         <v>43164.908842592602</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J15" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>0</v>
       </c>
@@ -651,7 +723,7 @@
         <v>43165.382210648102</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
         <v>0</v>
       </c>
@@ -660,8 +732,11 @@
       <c r="G17" s="4">
         <v>43165.890439814801</v>
       </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J17" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,7 +746,7 @@
         <v>43167.385648148098</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>0</v>
       </c>
@@ -680,8 +755,11 @@
       <c r="G19" s="4">
         <v>43167.8987037037</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J19" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>0</v>
       </c>
@@ -691,7 +769,7 @@
         <v>43181.381168981497</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
@@ -700,8 +778,11 @@
       <c r="G21" s="4">
         <v>43181.886747685203</v>
       </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J21" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
         <v>0</v>
       </c>
@@ -711,7 +792,7 @@
         <v>43186.3828125</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
         <v>0</v>
       </c>
@@ -720,8 +801,11 @@
       <c r="G23" s="4">
         <v>43186.903576388897</v>
       </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J23" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D24" s="5" t="s">
         <v>0</v>
       </c>
@@ -731,7 +815,7 @@
         <v>43188.3812847222</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D25" s="6" t="s">
         <v>0</v>
       </c>
@@ -741,7 +825,7 @@
         <v>43188.882789351897</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
         <v>0</v>
       </c>
@@ -751,7 +835,7 @@
         <v>43200.383553240703</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
         <v>0</v>
       </c>
@@ -760,8 +844,11 @@
       <c r="G27" s="4">
         <v>43200.8772916667</v>
       </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J27" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D28" s="3" t="s">
         <v>0</v>
       </c>
@@ -771,7 +858,7 @@
         <v>43207.384629629603</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D29" s="3" t="s">
         <v>0</v>
       </c>
@@ -780,8 +867,11 @@
       <c r="G29" s="4">
         <v>43207.908240740697</v>
       </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J29" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D30" s="5" t="s">
         <v>0</v>
       </c>
@@ -791,7 +881,7 @@
         <v>43210.385625000003</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D31" s="6" t="s">
         <v>0</v>
       </c>
@@ -801,13 +891,13 @@
         <v>43210.885613425897</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
         <v>0</v>
       </c>
@@ -817,7 +907,7 @@
         <v>43213.383402777799</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" s="3" t="s">
         <v>0</v>
       </c>
@@ -826,8 +916,11 @@
       <c r="G34" s="4">
         <v>43213.899490740703</v>
       </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J34" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
         <v>0</v>
       </c>
@@ -837,7 +930,7 @@
         <v>43214.382523148102</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D36" s="3" t="s">
         <v>0</v>
       </c>
@@ -846,8 +939,11 @@
       <c r="G36" s="4">
         <v>43214.903472222199</v>
       </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J36" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
         <v>0</v>
       </c>
@@ -857,7 +953,7 @@
         <v>43215.384050925903</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
         <v>0</v>
       </c>
@@ -866,8 +962,11 @@
       <c r="G38" s="4">
         <v>43215.906990740703</v>
       </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J38" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39" s="3" t="s">
         <v>0</v>
       </c>
@@ -877,7 +976,7 @@
         <v>43216.384108796301</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40" s="3" t="s">
         <v>0</v>
       </c>
@@ -886,8 +985,11 @@
       <c r="G40" s="4">
         <v>43216.898900462998</v>
       </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J40" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D41" s="3" t="s">
         <v>0</v>
       </c>
@@ -897,7 +999,7 @@
         <v>43222.385682870401</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D42" s="3" t="s">
         <v>0</v>
       </c>
@@ -906,8 +1008,11 @@
       <c r="G42" s="4">
         <v>43222.899849537003</v>
       </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J42" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D43" s="3" t="s">
         <v>0</v>
       </c>
@@ -917,7 +1022,7 @@
         <v>43223.389374999999</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D44" s="3" t="s">
         <v>0</v>
       </c>
@@ -926,8 +1031,11 @@
       <c r="G44" s="4">
         <v>43223.917083333297</v>
       </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J44" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D45" s="3" t="s">
         <v>0</v>
       </c>
@@ -937,7 +1045,7 @@
         <v>43224.384525463</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D46" s="3" t="s">
         <v>0</v>
       </c>
@@ -947,7 +1055,7 @@
         <v>43224.817233796297</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D47" s="3" t="s">
         <v>0</v>
       </c>
@@ -957,7 +1065,7 @@
         <v>43225.405671296299</v>
       </c>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D48" s="3" t="s">
         <v>0</v>
       </c>
@@ -967,7 +1075,7 @@
         <v>43225.7801736111</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D49" s="3" t="s">
         <v>0</v>
       </c>
@@ -977,7 +1085,7 @@
         <v>43227.393923611096</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D50" s="3" t="s">
         <v>0</v>
       </c>
@@ -986,8 +1094,11 @@
       <c r="G50" s="4">
         <v>43227.884710648097</v>
       </c>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J50" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D51" s="3" t="s">
         <v>0</v>
       </c>
@@ -997,7 +1108,7 @@
         <v>43228.382962962998</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D52" s="3" t="s">
         <v>0</v>
       </c>
@@ -1006,8 +1117,11 @@
       <c r="G52" s="4">
         <v>43228.879953703698</v>
       </c>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J52" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D53" s="3" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1131,7 @@
         <v>43230.390879629602</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D54" s="3" t="s">
         <v>0</v>
       </c>
@@ -1026,8 +1140,11 @@
       <c r="G54" s="4">
         <v>43230.902361111097</v>
       </c>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="J54" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D55" s="3" t="s">
         <v>0</v>
       </c>
@@ -1037,1544 +1154,2205 @@
         <v>43231.3900810185</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="2">
-        <v>43236.386099537034</v>
-      </c>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="2">
-        <v>43236.900775462964</v>
-      </c>
-    </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4">
+        <v>43232.407268518502</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="4">
+        <v>43232.762662036999</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="2">
-        <v>43237.385879629626</v>
-      </c>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43236.386099537034</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="2">
-        <v>43237.89949074074</v>
-      </c>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43236.900775462964</v>
+      </c>
+      <c r="J59" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="2">
-        <v>43242.385717592595</v>
-      </c>
-    </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43237.385879629626</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="2">
-        <v>43242.902951388889</v>
-      </c>
-    </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43237.89949074074</v>
+      </c>
+      <c r="J61" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="2">
-        <v>43243.390115740738</v>
-      </c>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43242.385717592595</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="2">
-        <v>43243.900648148148</v>
-      </c>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43242.902951388889</v>
+      </c>
+      <c r="J63" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="2">
-        <v>43246.447835648149</v>
-      </c>
-    </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43243.390115740738</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="2">
-        <v>43246.730856481481</v>
-      </c>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43243.900648148148</v>
+      </c>
+      <c r="J65" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="2">
-        <v>43248.393807870372</v>
-      </c>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43246.447835648149</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="2">
-        <v>43248.88386574074</v>
-      </c>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43246.730856481481</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="2">
-        <v>43249.385104166664</v>
-      </c>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43248.393807870372</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="2">
-        <v>43249.904340277775</v>
-      </c>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43248.88386574074</v>
+      </c>
+      <c r="J69" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="2">
-        <v>43251.390127314815</v>
-      </c>
-    </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43249.385104166664</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D71" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="2">
-        <v>43251.884166666663</v>
-      </c>
-    </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43249.904340277775</v>
+      </c>
+      <c r="J71" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="2">
-        <v>43253.427858796298</v>
-      </c>
-    </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43251.390127314815</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="2">
-        <v>43253.724675925929</v>
-      </c>
-    </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43251.884166666663</v>
+      </c>
+      <c r="J73" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="2">
-        <v>43253.726840277777</v>
-      </c>
-    </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43253.427858796298</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="2">
-        <v>43255.393599537034</v>
-      </c>
-    </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43253.724675925929</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="2">
-        <v>43255.884398148148</v>
-      </c>
-    </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43253.726840277777</v>
+      </c>
+      <c r="J76" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="2">
-        <v>43256.385208333333</v>
-      </c>
-    </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43255.393599537034</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="2">
-        <v>43256.879675925928</v>
-      </c>
-    </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43255.884398148148</v>
+      </c>
+      <c r="J78" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="2">
-        <v>43257.384479166663</v>
-      </c>
-    </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43256.385208333333</v>
+      </c>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D80" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="2">
-        <v>43257.899444444447</v>
-      </c>
-    </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43256.879675925928</v>
+      </c>
+      <c r="J80" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="2">
-        <v>43258.384212962963</v>
-      </c>
-    </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43257.384479166663</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="2">
-        <v>43258.890821759262</v>
-      </c>
-    </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43257.899444444447</v>
+      </c>
+      <c r="J82" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D83" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="2">
-        <v>43259.3903125</v>
-      </c>
-    </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43258.384212962963</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="2">
-        <v>43259.885833333334</v>
-      </c>
-    </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43258.890821759262</v>
+      </c>
+      <c r="J84" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="2">
-        <v>43262.38480324074</v>
-      </c>
-    </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43259.3903125</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="2">
-        <v>43262.903402777774</v>
-      </c>
-    </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43259.885833333334</v>
+      </c>
+      <c r="J86" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="2">
-        <v>43263.386331018519</v>
-      </c>
-    </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43262.38480324074</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="2">
-        <v>43263.884305555555</v>
-      </c>
-    </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43262.903402777774</v>
+      </c>
+      <c r="J88" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="2">
-        <v>43270.389560185184</v>
-      </c>
-    </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43263.386331018519</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="2">
-        <v>43270.917893518519</v>
-      </c>
-    </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43263.884305555555</v>
+      </c>
+      <c r="J90" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="2">
-        <v>43271.386250000003</v>
-      </c>
-    </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43270.389560185184</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="2">
-        <v>43271.916631944441</v>
-      </c>
-    </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43270.917893518519</v>
+      </c>
+      <c r="J92" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="2">
-        <v>43272.386238425926</v>
-      </c>
-    </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43271.386250000003</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D94" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="2">
-        <v>43272.95003472222</v>
-      </c>
-    </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43271.916631944441</v>
+      </c>
+      <c r="J94" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="2">
-        <v>43272.950775462959</v>
-      </c>
-    </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43272.386238425926</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="2">
-        <v>43273.383784722224</v>
-      </c>
-    </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43272.95003472222</v>
+      </c>
+    </row>
+    <row r="97" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2">
-        <v>43273.992337962962</v>
-      </c>
-    </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43272.950775462959</v>
+      </c>
+      <c r="J97" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D98" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="2">
-        <v>43274.0702662037</v>
-      </c>
-    </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43273.383784722224</v>
+      </c>
+    </row>
+    <row r="99" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D99" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="2">
-        <v>43274.598541666666</v>
-      </c>
-    </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43273.992337962962</v>
+      </c>
+      <c r="J99" s="9">
+        <v>46</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="2">
-        <v>43274.599652777775</v>
-      </c>
-    </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43274.0702662037</v>
+      </c>
+    </row>
+    <row r="101" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D101" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="2">
-        <v>43274.869270833333</v>
-      </c>
-    </row>
-    <row r="102" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43274.598541666666</v>
+      </c>
+    </row>
+    <row r="102" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="2">
-        <v>43276.391064814816</v>
-      </c>
-    </row>
-    <row r="103" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43274.599652777775</v>
+      </c>
+    </row>
+    <row r="103" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="2">
-        <v>43276.988506944443</v>
-      </c>
-    </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43274.869270833333</v>
+      </c>
+      <c r="J103" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D104" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="2">
-        <v>43276.992997685185</v>
-      </c>
-    </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43276.391064814816</v>
+      </c>
+    </row>
+    <row r="105" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D105" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="2">
-        <v>43277.386354166665</v>
-      </c>
-    </row>
-    <row r="106" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43276.988506944443</v>
+      </c>
+    </row>
+    <row r="106" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="2">
-        <v>43277.893460648149</v>
-      </c>
-    </row>
-    <row r="107" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43276.992997685185</v>
+      </c>
+      <c r="J106" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="2">
-        <v>43278.393703703703</v>
-      </c>
-    </row>
-    <row r="108" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43277.386354166665</v>
+      </c>
+    </row>
+    <row r="108" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D108" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="2">
-        <v>43278.96603009259</v>
-      </c>
-    </row>
-    <row r="109" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43277.893460648149</v>
+      </c>
+    </row>
+    <row r="109" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="2">
-        <v>43279.386180555557</v>
-      </c>
-    </row>
-    <row r="110" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43278.393703703703</v>
+      </c>
+    </row>
+    <row r="110" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D110" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="2">
-        <v>43279.993611111109</v>
-      </c>
-    </row>
-    <row r="111" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43278.96603009259</v>
+      </c>
+      <c r="J110" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="2">
-        <v>43283.392824074072</v>
-      </c>
-    </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43279.386180555557</v>
+      </c>
+    </row>
+    <row r="112" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D112" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="2">
-        <v>43283.920902777776</v>
-      </c>
-    </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43279.993611111109</v>
+      </c>
+      <c r="J112" s="9">
+        <v>45</v>
+      </c>
+      <c r="K112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D113" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="2">
-        <v>43286.379189814812</v>
-      </c>
-    </row>
-    <row r="114" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43283.392824074072</v>
+      </c>
+    </row>
+    <row r="114" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D114" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="2">
-        <v>43286.925115740742</v>
-      </c>
-    </row>
-    <row r="115" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43283.920902777776</v>
+      </c>
+      <c r="J114" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="2">
-        <v>43286.925833333335</v>
-      </c>
-    </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43286.379189814812</v>
+      </c>
+    </row>
+    <row r="116" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D116" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="2">
-        <v>43290.37909722222</v>
-      </c>
-    </row>
-    <row r="117" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43286.925115740742</v>
+      </c>
+    </row>
+    <row r="117" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D117" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="2">
-        <v>43290.90115740741</v>
-      </c>
-    </row>
-    <row r="118" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43286.925833333335</v>
+      </c>
+      <c r="J117" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D118" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="2">
-        <v>43291.381412037037</v>
-      </c>
-    </row>
-    <row r="119" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43290.37909722222</v>
+      </c>
+    </row>
+    <row r="119" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D119" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="2">
-        <v>43291.91988425926</v>
-      </c>
-    </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43290.90115740741</v>
+      </c>
+      <c r="J119" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="2">
-        <v>43293.378877314812</v>
-      </c>
-    </row>
-    <row r="121" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43291.381412037037</v>
+      </c>
+    </row>
+    <row r="121" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D121" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="2">
-        <v>43293.920925925922</v>
-      </c>
-    </row>
-    <row r="122" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43291.91988425926</v>
+      </c>
+      <c r="J121" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D122" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="2">
-        <v>43297.389224537037</v>
-      </c>
-    </row>
-    <row r="123" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43293.378877314812</v>
+      </c>
+    </row>
+    <row r="123" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D123" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="2">
-        <v>43297.897407407407</v>
-      </c>
-    </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43293.920925925922</v>
+      </c>
+      <c r="J123" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D124" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="2">
-        <v>43298.385706018518</v>
-      </c>
-    </row>
-    <row r="125" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43297.389224537037</v>
+      </c>
+    </row>
+    <row r="125" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D125" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="2">
-        <v>43298.93068287037</v>
-      </c>
-    </row>
-    <row r="126" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43297.897407407407</v>
+      </c>
+      <c r="J125" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D126" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="2">
-        <v>43299.384398148148</v>
-      </c>
-    </row>
-    <row r="127" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43298.385706018518</v>
+      </c>
+    </row>
+    <row r="127" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D127" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="2">
-        <v>43299.93178240741</v>
-      </c>
-    </row>
-    <row r="128" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43298.93068287037</v>
+      </c>
+      <c r="J127" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D128" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="2">
-        <v>43300.384398148148</v>
-      </c>
-    </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43299.384398148148</v>
+      </c>
+    </row>
+    <row r="129" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D129" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="2">
-        <v>43300.908796296295</v>
-      </c>
-    </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43299.93178240741</v>
+      </c>
+      <c r="J129" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="2">
-        <v>43304.389351851853</v>
-      </c>
-    </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43300.384398148148</v>
+      </c>
+    </row>
+    <row r="131" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D131" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="2">
-        <v>43304.921446759261</v>
-      </c>
-    </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43300.908796296295</v>
+      </c>
+      <c r="J131" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D132" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="2">
-        <v>43305.392002314817</v>
-      </c>
-    </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43304.389351851853</v>
+      </c>
+    </row>
+    <row r="133" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D133" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="2">
-        <v>43305.900740740741</v>
-      </c>
-    </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43304.921446759261</v>
+      </c>
+      <c r="J133" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D134" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="2">
-        <v>43306.380231481482</v>
-      </c>
-    </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43305.392002314817</v>
+      </c>
+    </row>
+    <row r="135" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D135" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="2">
-        <v>43306.923634259256</v>
-      </c>
-    </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43305.900740740741</v>
+      </c>
+      <c r="J135" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D136" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="2">
-        <v>43307.383796296293</v>
-      </c>
-    </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43306.380231481482</v>
+      </c>
+    </row>
+    <row r="137" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D137" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="2">
-        <v>43307.920706018522</v>
-      </c>
-    </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43306.923634259256</v>
+      </c>
+      <c r="J137" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D138" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="2">
-        <v>43311.386782407404</v>
-      </c>
-    </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43307.383796296293</v>
+      </c>
+    </row>
+    <row r="139" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D139" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="2">
-        <v>43311.901354166665</v>
-      </c>
-    </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43307.920706018522</v>
+      </c>
+      <c r="J139" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D140" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="2">
-        <v>43312.381249999999</v>
-      </c>
-    </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43311.386782407404</v>
+      </c>
+    </row>
+    <row r="141" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D141" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="2">
-        <v>43312.898321759261</v>
-      </c>
-    </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43311.901354166665</v>
+      </c>
+      <c r="J141" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D142" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="2">
-        <v>43313.386296296296</v>
-      </c>
-    </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43312.381249999999</v>
+      </c>
+    </row>
+    <row r="143" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D143" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="2">
-        <v>43313.883819444447</v>
-      </c>
-    </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43312.898321759261</v>
+      </c>
+      <c r="J143" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D144" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="2">
-        <v>43314.384780092594</v>
-      </c>
-    </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43313.386296296296</v>
+      </c>
+    </row>
+    <row r="145" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D145" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="2">
-        <v>43314.900717592594</v>
-      </c>
-    </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43313.883819444447</v>
+      </c>
+      <c r="J145" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D146" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="2">
-        <v>43318.386192129627</v>
-      </c>
-    </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43314.384780092594</v>
+      </c>
+    </row>
+    <row r="147" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D147" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="2">
-        <v>43318.902974537035</v>
-      </c>
-    </row>
-    <row r="148" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43314.900717592594</v>
+      </c>
+      <c r="J147" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D148" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="2">
-        <v>43319.384004629632</v>
-      </c>
-    </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43318.386192129627</v>
+      </c>
+    </row>
+    <row r="149" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D149" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="2">
-        <v>43319.911134259259</v>
-      </c>
-    </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43318.902974537035</v>
+      </c>
+      <c r="J149" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D150" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="2">
-        <v>43320.383379629631</v>
-      </c>
-    </row>
-    <row r="151" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43319.384004629632</v>
+      </c>
+    </row>
+    <row r="151" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="2">
-        <v>43320.926064814812</v>
-      </c>
-    </row>
-    <row r="152" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43319.911134259259</v>
+      </c>
+      <c r="J151" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D152" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="2">
-        <v>43321.379247685189</v>
-      </c>
-    </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43320.383379629631</v>
+      </c>
+    </row>
+    <row r="153" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D153" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="2">
-        <v>43321.987303240741</v>
-      </c>
-    </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43320.926064814812</v>
+      </c>
+      <c r="J153" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D154" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="2">
-        <v>43325.472326388888</v>
-      </c>
-    </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43321.379247685189</v>
+      </c>
+    </row>
+    <row r="155" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D155" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="2">
-        <v>43325.929340277777</v>
-      </c>
-    </row>
-    <row r="156" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43321.987303240741</v>
+      </c>
+    </row>
+    <row r="156" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D156" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="2">
-        <v>43326.38726851852</v>
-      </c>
-    </row>
-    <row r="157" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43325.472326388888</v>
+      </c>
+    </row>
+    <row r="157" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D157" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="2">
-        <v>43326.922939814816</v>
-      </c>
-    </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43325.929340277777</v>
+      </c>
+      <c r="J157" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D158" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="2">
-        <v>43327.382013888891</v>
-      </c>
-    </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43326.38726851852</v>
+      </c>
+    </row>
+    <row r="159" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D159" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="2">
-        <v>43327.97483796296</v>
-      </c>
-    </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43326.922939814816</v>
+      </c>
+      <c r="J159" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D160" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="2">
-        <v>43328.392071759263</v>
-      </c>
-    </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43327.382013888891</v>
+      </c>
+    </row>
+    <row r="161" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D161" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="2">
-        <v>43328.903182870374</v>
-      </c>
-    </row>
-    <row r="162" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43327.97483796296</v>
+      </c>
+      <c r="J161" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D162" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="2">
-        <v>43332.382395833331</v>
-      </c>
-    </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43328.392071759263</v>
+      </c>
+    </row>
+    <row r="163" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D163" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="2">
-        <v>43332.90320601852</v>
-      </c>
-    </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43328.903182870374</v>
+      </c>
+      <c r="J163" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D164" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="2">
-        <v>43333.384305555555</v>
-      </c>
-    </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43332.382395833331</v>
+      </c>
+    </row>
+    <row r="165" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D165" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="2">
-        <v>43333.901678240742</v>
-      </c>
-    </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43332.90320601852</v>
+      </c>
+      <c r="J165" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D166" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="2">
-        <v>43334.381874999999</v>
-      </c>
-    </row>
-    <row r="167" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43333.384305555555</v>
+      </c>
+    </row>
+    <row r="167" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D167" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="2">
-        <v>43334.924837962964</v>
-      </c>
-    </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43333.901678240742</v>
+      </c>
+      <c r="J167" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D168" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="2">
-        <v>43335.382696759261</v>
-      </c>
-    </row>
-    <row r="169" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43334.381874999999</v>
+      </c>
+    </row>
+    <row r="169" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D169" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="2">
-        <v>43335.913761574076</v>
-      </c>
-    </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43334.924837962964</v>
+      </c>
+      <c r="J169" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="170" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D170" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="2">
-        <v>43336.378888888888</v>
-      </c>
-    </row>
-    <row r="171" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43335.382696759261</v>
+      </c>
+    </row>
+    <row r="171" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D171" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="2">
-        <v>43336.876226851855</v>
-      </c>
-    </row>
-    <row r="172" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43335.913761574076</v>
+      </c>
+      <c r="J171" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D172" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="2">
-        <v>43339.377453703702</v>
-      </c>
-    </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43336.378888888888</v>
+      </c>
+    </row>
+    <row r="173" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D173" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="2">
-        <v>43339.893518518518</v>
-      </c>
-    </row>
-    <row r="174" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43336.876226851855</v>
+      </c>
+      <c r="J173" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D174" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="2">
-        <v>43340.384560185186</v>
-      </c>
-    </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43339.377453703702</v>
+      </c>
+    </row>
+    <row r="175" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D175" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="2">
-        <v>43340.904687499999</v>
-      </c>
-    </row>
-    <row r="176" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43339.893518518518</v>
+      </c>
+      <c r="J175" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D176" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="2">
-        <v>43341.381423611114</v>
-      </c>
-    </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43340.384560185186</v>
+      </c>
+    </row>
+    <row r="177" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D177" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="2">
-        <v>43341.900393518517</v>
-      </c>
-    </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43340.904687499999</v>
+      </c>
+      <c r="J177" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="178" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D178" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="2">
-        <v>43342.377962962964</v>
-      </c>
-    </row>
-    <row r="179" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43341.381423611114</v>
+      </c>
+    </row>
+    <row r="179" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D179" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="2">
-        <v>43342.896886574075</v>
-      </c>
-    </row>
-    <row r="180" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43341.900393518517</v>
+      </c>
+      <c r="J179" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="180" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D180" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="2">
-        <v>43346.380949074075</v>
-      </c>
-    </row>
-    <row r="181" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43342.377962962964</v>
+      </c>
+    </row>
+    <row r="181" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D181" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="2">
-        <v>43346.9</v>
-      </c>
-    </row>
-    <row r="182" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43342.896886574075</v>
+      </c>
+      <c r="J181" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="182" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D182" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="2">
-        <v>43347.374363425923</v>
-      </c>
-    </row>
-    <row r="183" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43346.380949074075</v>
+      </c>
+    </row>
+    <row r="183" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D183" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="2">
-        <v>43347.904513888891</v>
-      </c>
-    </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43346.9</v>
+      </c>
+      <c r="J183" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D184" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="2">
-        <v>43348.378738425927</v>
-      </c>
-    </row>
-    <row r="185" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43347.374363425923</v>
+      </c>
+    </row>
+    <row r="185" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D185" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="2">
-        <v>43348.955868055556</v>
-      </c>
-    </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43347.904513888891</v>
+      </c>
+      <c r="J185" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="186" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D186" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="2">
-        <v>43348.957187499997</v>
-      </c>
-    </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43348.378738425927</v>
+      </c>
+    </row>
+    <row r="187" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D187" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="2">
-        <v>43349.378831018519</v>
-      </c>
-    </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43348.955868055556</v>
+      </c>
+    </row>
+    <row r="188" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D188" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="2">
-        <v>43349.918935185182</v>
-      </c>
-    </row>
-    <row r="189" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43348.957187499997</v>
+      </c>
+      <c r="J188" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="189" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D189" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="2">
-        <v>43350.380983796298</v>
-      </c>
-    </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43349.378831018519</v>
+      </c>
+    </row>
+    <row r="190" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D190" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="2">
+        <v>43349.918935185182</v>
+      </c>
+      <c r="J190" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="191" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D191" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="2">
+        <v>43350.380983796298</v>
+      </c>
+    </row>
+    <row r="192" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D192" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="2">
         <v>43350.997129629628</v>
       </c>
-    </row>
-    <row r="191" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D191" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="7">
+      <c r="J192" s="9">
+        <v>54</v>
+      </c>
+      <c r="K192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D193" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="7">
         <v>43351.024618055555</v>
       </c>
     </row>
-    <row r="192" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D192" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="7">
+    <row r="194" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D194" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="7">
         <v>43353.379814814813</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D193" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="2">
-        <v>43353.379814814813</v>
-      </c>
-    </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D194" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="2">
-        <v>43353.904942129629</v>
-      </c>
-    </row>
-    <row r="195" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D195" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="2">
-        <v>43354.381423611114</v>
-      </c>
-    </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43353.379814814813</v>
+      </c>
+    </row>
+    <row r="196" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D196" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="2">
-        <v>43354.89261574074</v>
-      </c>
-    </row>
-    <row r="197" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43353.904942129629</v>
+      </c>
+      <c r="J196" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D197" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="2">
-        <v>43355.380243055559</v>
-      </c>
-    </row>
-    <row r="198" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43354.381423611114</v>
+      </c>
+    </row>
+    <row r="198" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D198" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="2">
-        <v>43355.928773148145</v>
-      </c>
-    </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43354.89261574074</v>
+      </c>
+      <c r="J198" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="199" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D199" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="2">
-        <v>43356.381990740738</v>
-      </c>
-    </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43355.380243055559</v>
+      </c>
+    </row>
+    <row r="200" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D200" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="2">
-        <v>43356.925543981481</v>
-      </c>
-    </row>
-    <row r="201" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43355.928773148145</v>
+      </c>
+      <c r="J200" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D201" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="2">
-        <v>43360.380069444444</v>
-      </c>
-    </row>
-    <row r="202" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43356.381990740738</v>
+      </c>
+    </row>
+    <row r="202" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D202" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="2">
-        <v>43360.910046296296</v>
-      </c>
-    </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D203" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="2">
-        <v>43361.377638888887</v>
-      </c>
-    </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D204" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="2">
-        <v>43361.380972222221</v>
-      </c>
-    </row>
-    <row r="205" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43356.925543981481</v>
+      </c>
+      <c r="J202" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D203" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="15">
+        <v>43358.422615740739</v>
+      </c>
+      <c r="H203" s="16"/>
+      <c r="I203" s="16"/>
+      <c r="J203" s="13"/>
+    </row>
+    <row r="204" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D204" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="15">
+        <v>43358.812465277777</v>
+      </c>
+      <c r="H204" s="16"/>
+      <c r="I204" s="16"/>
+      <c r="J204" s="13">
+        <v>41</v>
+      </c>
+      <c r="K204" s="10"/>
+    </row>
+    <row r="205" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D205" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="2">
-        <v>43361.908229166664</v>
-      </c>
-    </row>
-    <row r="206" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43360.380069444444</v>
+      </c>
+    </row>
+    <row r="206" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D206" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="2">
-        <v>43362.38144675926</v>
-      </c>
-    </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43360.910046296296</v>
+      </c>
+      <c r="J206" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="207" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D207" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="2">
-        <v>43362.917708333334</v>
-      </c>
-    </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43361.377638888887</v>
+      </c>
+    </row>
+    <row r="208" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D208" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="2">
-        <v>43363.382280092592</v>
-      </c>
-    </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.2">
+        <v>43361.380972222221</v>
+      </c>
+    </row>
+    <row r="209" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D209" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="2">
+        <v>43361.908229166664</v>
+      </c>
+      <c r="J209" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="210" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D210" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="2">
+        <v>43362.38144675926</v>
+      </c>
+    </row>
+    <row r="211" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="2">
+        <v>43362.917708333334</v>
+      </c>
+      <c r="J211" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="212" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D212" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="2">
+        <v>43363.382280092592</v>
+      </c>
+    </row>
+    <row r="213" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D213" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="2">
         <v>43363.920671296299</v>
+      </c>
+      <c r="J213" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="214" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D214" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="2">
+        <v>43365.429247685184</v>
+      </c>
+    </row>
+    <row r="215" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D215" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="2">
+        <v>43365.766076388885</v>
+      </c>
+      <c r="J215" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="216" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D216" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="2">
+        <v>43368.375972222224</v>
+      </c>
+    </row>
+    <row r="217" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D217" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="2">
+        <v>43368.937824074077</v>
+      </c>
+      <c r="J217" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="218" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D218" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="2">
+        <v>43369.379988425928</v>
+      </c>
+    </row>
+    <row r="219" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D219" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="2">
+        <v>43369.931851851848</v>
+      </c>
+      <c r="J219" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="220" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D220" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="2">
+        <v>43370.380185185182</v>
+      </c>
+    </row>
+    <row r="221" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D221" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="2">
+        <v>43370.905011574076</v>
+      </c>
+      <c r="J221" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D222" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="2">
+        <v>43371.380277777775</v>
+      </c>
+    </row>
+    <row r="223" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D223" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="2">
+        <v>43371.880243055559</v>
+      </c>
+      <c r="J223" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="224" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D224" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="2">
+        <v>43383.383680555555</v>
+      </c>
+    </row>
+    <row r="225" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D225" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="2">
+        <v>43383.904513888891</v>
+      </c>
+      <c r="J225" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D226" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="2">
+        <v>43384.381585648145</v>
+      </c>
+    </row>
+    <row r="227" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D227" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="2">
+        <v>43384.900879629633</v>
+      </c>
+      <c r="J227" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="228" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D228" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="2">
+        <v>43386.474374999998</v>
+      </c>
+    </row>
+    <row r="229" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D229" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="2">
+        <v>43386.775694444441</v>
+      </c>
+      <c r="J229" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="230" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D230" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="2">
+        <v>43388.382002314815</v>
+      </c>
+    </row>
+    <row r="231" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D231" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="2">
+        <v>43388.883240740739</v>
+      </c>
+      <c r="J231" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="232" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="2">
+        <v>43389.384016203701</v>
+      </c>
+    </row>
+    <row r="233" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D233" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="2">
+        <v>43389.914583333331</v>
+      </c>
+      <c r="J233" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="234" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D234" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="2">
+        <v>43390.382534722223</v>
+      </c>
+    </row>
+    <row r="235" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D235" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="2">
+        <v>43390.876550925925</v>
+      </c>
+      <c r="J235" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="236" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D236" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="2">
+        <v>43391.382650462961</v>
+      </c>
+    </row>
+    <row r="237" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D237" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="2">
+        <v>43391.943136574075</v>
+      </c>
+      <c r="J237" s="9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="238" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D238" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="2">
+        <v>43392.38181712963</v>
+      </c>
+    </row>
+    <row r="239" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D239" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="2">
+        <v>43392.917997685188</v>
+      </c>
+      <c r="J239" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="240" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D240" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="12">
+        <v>43395.384479166663</v>
+      </c>
+    </row>
+    <row r="241" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D241" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="12">
+        <v>43395.886180555557</v>
+      </c>
+      <c r="J241" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D242" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="12">
+        <v>43396.38621527778</v>
+      </c>
+    </row>
+    <row r="243" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D243" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="12">
+        <v>43396.879756944443</v>
+      </c>
+      <c r="J243" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="244" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D244" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
+      <c r="G244" s="12">
+        <v>43397.383125</v>
+      </c>
+    </row>
+    <row r="245" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D245" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="12">
+        <v>43397.903449074074</v>
+      </c>
+      <c r="J245" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="246" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D246" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="12">
+        <v>43398.381921296299</v>
+      </c>
+    </row>
+    <row r="247" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D247" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E247" s="11"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="12">
+        <v>43398.87809027778</v>
+      </c>
+      <c r="J247" s="9">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
